--- a/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
+++ b/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nielsond/code/midla/great_expectations/great_expectations_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260A948-59EC-624C-B8CB-FE8190DC5736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8136591-9986-3F46-BF0A-98C4B6E21FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="6960" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="20700" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master list" sheetId="1" r:id="rId1"/>
@@ -2072,17 +2072,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2093,11 +2096,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2108,12 +2113,14 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2124,6 +2131,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2139,16 +2147,19 @@
       <sz val="10"/>
       <color rgb="FF2E2E2E"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1C1D1E"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2160,6 +2171,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2170,6 +2182,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2217,7 +2230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2278,6 +2291,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2498,11 +2512,11 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3071,7 +3085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="16">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="16">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="16">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -3207,7 +3221,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="16">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="16">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -3256,7 +3270,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="16">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="16">
       <c r="A9" s="6" t="s">
         <v>75</v>
       </c>
@@ -3331,7 +3345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="16">
       <c r="A10" s="6" t="s">
         <v>75</v>
       </c>
@@ -3365,7 +3379,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="16">
       <c r="A11" s="2" t="s">
         <v>109</v>
       </c>
@@ -3382,7 +3396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="16">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="16">
       <c r="A13" s="2" t="s">
         <v>109</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="16">
       <c r="A14" s="2" t="s">
         <v>109</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="16">
       <c r="A15" s="2" t="s">
         <v>109</v>
       </c>
@@ -3459,7 +3473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="16">
       <c r="A16" s="2" t="s">
         <v>109</v>
       </c>
@@ -3479,7 +3493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="16">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -3512,7 +3526,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="16">
       <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
@@ -3555,7 +3569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="16">
       <c r="A19" s="2" t="s">
         <v>119</v>
       </c>
@@ -3592,7 +3606,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" ht="16">
       <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
@@ -3629,7 +3643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" ht="16">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -3666,7 +3680,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" ht="16">
       <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
@@ -3699,7 +3713,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="16">
       <c r="A23" s="2" t="s">
         <v>146</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" ht="16">
       <c r="A24" s="2" t="s">
         <v>156</v>
       </c>
@@ -3766,7 +3780,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" ht="16">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" ht="16">
       <c r="A26" s="2" t="s">
         <v>164</v>
       </c>
@@ -3828,7 +3842,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" ht="16">
       <c r="A27" s="2" t="s">
         <v>173</v>
       </c>
@@ -3868,7 +3882,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" ht="16">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="16">
       <c r="A29" s="2" t="s">
         <v>173</v>
       </c>
@@ -4037,7 +4051,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" ht="16">
       <c r="A33" s="2" t="s">
         <v>196</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" ht="16">
       <c r="A34" s="2" t="s">
         <v>196</v>
       </c>
@@ -4115,7 +4129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="16">
       <c r="A35" s="2" t="s">
         <v>208</v>
       </c>
@@ -4148,7 +4162,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="16">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -4188,7 +4202,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" ht="16">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -4228,7 +4242,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" ht="16">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" ht="16">
       <c r="A39" s="2" t="s">
         <v>229</v>
       </c>
@@ -4306,7 +4320,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" ht="16">
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
@@ -4343,7 +4357,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" ht="16">
       <c r="A41" s="5" t="s">
         <v>236</v>
       </c>
@@ -4387,7 +4401,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" ht="16">
       <c r="A42" s="5" t="s">
         <v>252</v>
       </c>
@@ -4417,7 +4431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" ht="16">
       <c r="A43" s="5" t="s">
         <v>260</v>
       </c>
@@ -4445,7 +4459,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" ht="16">
       <c r="A44" s="5" t="s">
         <v>260</v>
       </c>
@@ -4474,7 +4488,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" ht="16">
       <c r="A45" s="5" t="s">
         <v>260</v>
       </c>
@@ -4503,7 +4517,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" ht="16">
       <c r="A46" s="5" t="s">
         <v>270</v>
       </c>
@@ -4527,7 +4541,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" ht="16">
       <c r="A47" s="5" t="s">
         <v>293</v>
       </c>
@@ -4555,7 +4569,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" ht="16">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -8115,7 +8129,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16">
       <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
@@ -8163,7 +8177,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16">
       <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
@@ -8211,7 +8225,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
@@ -8259,7 +8273,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16">
       <c r="A5" s="16" t="s">
         <v>164</v>
       </c>
@@ -8307,7 +8321,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16">
       <c r="A6" s="15" t="s">
         <v>173</v>
       </c>
@@ -8358,7 +8372,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16">
       <c r="A7" s="16" t="s">
         <v>196</v>
       </c>
@@ -8409,7 +8423,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16">
       <c r="A8" s="16" t="s">
         <v>196</v>
       </c>
@@ -8460,7 +8474,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16">
       <c r="A9" s="2" t="s">
         <v>208</v>
       </c>
@@ -8508,7 +8522,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -8547,7 +8561,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16">
       <c r="A11" s="2" t="s">
         <v>218</v>
       </c>
@@ -8586,7 +8600,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16">
       <c r="A12" s="2" t="s">
         <v>218</v>
       </c>
@@ -8625,7 +8639,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16">
       <c r="A13" s="5" t="s">
         <v>293</v>
       </c>
@@ -8751,7 +8765,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="16">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -8788,7 +8802,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -8825,7 +8839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="16">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -8862,7 +8876,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="16">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -8899,7 +8913,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="16">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -8936,7 +8950,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="16">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -8973,7 +8987,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="16">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -9010,7 +9024,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="16">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -9051,7 +9065,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="16">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -9280,7 +9294,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="16">
       <c r="A15" s="16" t="s">
         <v>109</v>
       </c>
@@ -9315,7 +9329,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -9352,7 +9366,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="16">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -9389,7 +9403,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="16">
       <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
@@ -9426,7 +9440,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="16">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -9479,7 +9493,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="16">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -9709,7 +9723,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="16">
       <c r="A26" s="16" t="s">
         <v>229</v>
       </c>
@@ -9751,7 +9765,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="16">
       <c r="A27" s="16" t="s">
         <v>229</v>
       </c>
@@ -9832,7 +9846,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="16">
       <c r="A29" s="23" t="s">
         <v>252</v>
       </c>
@@ -9868,7 +9882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="16">
       <c r="A30" s="23" t="s">
         <v>260</v>
       </c>
@@ -9913,7 +9927,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="16">
       <c r="A31" s="23" t="s">
         <v>260</v>
       </c>
@@ -9946,7 +9960,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="16">
       <c r="A32" s="23" t="s">
         <v>270</v>
       </c>
@@ -9979,7 +9993,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="16">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -10017,7 +10031,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="16">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -10067,7 +10081,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="16">
       <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
@@ -10117,7 +10131,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="16">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
@@ -10322,11 +10336,11 @@
   </sheetPr>
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -10413,7 +10427,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="16">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -10457,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -10504,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="16">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -10554,7 +10568,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="16">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -10598,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="16">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -10648,7 +10662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="16">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -10692,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="16">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -10736,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="16">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -10780,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="16">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -10824,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="16">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -10874,7 +10888,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="16">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -10918,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="16">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -10947,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="16">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -10976,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="16">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -11005,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="16">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -11034,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="16">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -11081,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="16">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -11125,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="16">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -11157,7 +11171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" ht="16">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -11736,7 +11750,7 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" ht="16">
       <c r="A33" s="16" t="s">
         <v>109</v>
       </c>
@@ -11773,6 +11787,9 @@
       <c r="M33" s="1">
         <v>0.36699999999999999</v>
       </c>
+      <c r="N33" s="24">
+        <v>245</v>
+      </c>
       <c r="P33" s="1" t="s">
         <v>564</v>
       </c>
@@ -11795,7 +11812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" ht="16">
       <c r="A34" s="16" t="s">
         <v>109</v>
       </c>
@@ -11832,6 +11849,9 @@
       <c r="M34" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="N34" s="24">
+        <v>245</v>
+      </c>
       <c r="P34" s="10" t="s">
         <v>569</v>
       </c>
@@ -11854,7 +11874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" ht="16">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -11901,7 +11921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="16">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -11948,7 +11968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" ht="16">
       <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
@@ -11992,7 +12012,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" ht="16">
       <c r="A38" s="16" t="s">
         <v>141</v>
       </c>
@@ -12049,7 +12069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" ht="16">
       <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
@@ -12084,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" ht="16">
       <c r="A40" s="16" t="s">
         <v>146</v>
       </c>
@@ -12131,7 +12151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" ht="16">
       <c r="A41" s="16" t="s">
         <v>146</v>
       </c>
@@ -12166,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" ht="16">
       <c r="A42" s="16" t="s">
         <v>146</v>
       </c>
@@ -12201,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" ht="16">
       <c r="A43" s="16" t="s">
         <v>146</v>
       </c>
@@ -12248,7 +12268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" ht="16">
       <c r="A44" s="2" t="s">
         <v>156</v>
       </c>
@@ -12289,7 +12309,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" ht="16">
       <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
@@ -12339,7 +12359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" ht="16">
       <c r="A46" s="16" t="s">
         <v>164</v>
       </c>
@@ -12386,7 +12406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" ht="16">
       <c r="A47" s="16" t="s">
         <v>164</v>
       </c>
@@ -12436,7 +12456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" ht="16">
       <c r="A48" s="16" t="s">
         <v>173</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" ht="16">
       <c r="A49" s="16" t="s">
         <v>173</v>
       </c>
@@ -12525,7 +12545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" ht="16">
       <c r="A50" s="18" t="s">
         <v>178</v>
       </c>
@@ -12575,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" ht="16">
       <c r="A51" s="18" t="s">
         <v>178</v>
       </c>
@@ -12611,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" ht="16">
       <c r="A52" s="18" t="s">
         <v>178</v>
       </c>
@@ -12661,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" ht="16">
       <c r="A53" s="18" t="s">
         <v>178</v>
       </c>
@@ -12697,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" ht="16">
       <c r="A54" s="18" t="s">
         <v>178</v>
       </c>
@@ -12739,7 +12759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" ht="16">
       <c r="A55" s="18" t="s">
         <v>178</v>
       </c>
@@ -12781,7 +12801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" ht="16">
       <c r="A56" s="18" t="s">
         <v>178</v>
       </c>
@@ -12826,7 +12846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" ht="16">
       <c r="A57" s="18" t="s">
         <v>178</v>
       </c>
@@ -12868,7 +12888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" ht="16">
       <c r="A58" s="18" t="s">
         <v>178</v>
       </c>
@@ -12913,7 +12933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" ht="16">
       <c r="A59" s="18" t="s">
         <v>178</v>
       </c>
@@ -12977,7 +12997,9 @@
       <c r="G60" s="1">
         <v>-0.39</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" s="2">
+        <v>32</v>
+      </c>
       <c r="Q60" s="1">
         <v>0</v>
       </c>
@@ -13016,7 +13038,9 @@
       <c r="M61" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" s="2">
+        <v>32</v>
+      </c>
       <c r="Q61" s="1">
         <v>1</v>
       </c>
@@ -13058,7 +13082,9 @@
       <c r="G62" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" s="2">
+        <v>27</v>
+      </c>
       <c r="Q62" s="1">
         <v>0</v>
       </c>
@@ -13097,7 +13123,9 @@
       <c r="M63" s="1">
         <v>0.46</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" s="2">
+        <v>27</v>
+      </c>
       <c r="Q63" s="1">
         <v>1</v>
       </c>
@@ -13154,7 +13182,9 @@
       <c r="M64" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2">
+        <v>176</v>
+      </c>
       <c r="Q64" s="1">
         <v>0</v>
       </c>
@@ -13208,7 +13238,9 @@
       <c r="M65" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" s="17">
+        <v>176</v>
+      </c>
       <c r="Q65" s="1">
         <v>0</v>
       </c>
@@ -13262,7 +13294,9 @@
       <c r="M66" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" s="17">
+        <v>176</v>
+      </c>
       <c r="Q66" s="1">
         <v>0</v>
       </c>
@@ -13316,7 +13350,9 @@
       <c r="M67" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" s="17">
+        <v>176</v>
+      </c>
       <c r="Q67" s="1">
         <v>1</v>
       </c>
@@ -13523,7 +13559,9 @@
       <c r="M72" s="1">
         <v>0.04</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" s="2">
+        <v>58</v>
+      </c>
       <c r="Q72" s="1">
         <v>0</v>
       </c>
@@ -13571,7 +13609,9 @@
       <c r="M73" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" s="2">
+        <v>82</v>
+      </c>
       <c r="Q73" s="1">
         <v>0</v>
       </c>
@@ -13619,7 +13659,9 @@
       <c r="M74" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" s="2">
+        <v>82</v>
+      </c>
       <c r="P74" s="1" t="s">
         <v>635</v>
       </c>
@@ -13800,7 +13842,9 @@
       <c r="M78" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="N78" s="1"/>
+      <c r="N78" s="40">
+        <v>908</v>
+      </c>
       <c r="P78" s="37" t="s">
         <v>641</v>
       </c>
@@ -13948,6 +13992,9 @@
       <c r="M81" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="N81" s="24">
+        <v>35</v>
+      </c>
       <c r="P81" s="1" t="s">
         <v>649</v>
       </c>
@@ -14236,7 +14283,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N88" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q88" s="1">
         <v>0</v>

--- a/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
+++ b/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nielsond/code/midla/great_expectations/great_expectations_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8136591-9986-3F46-BF0A-98C4B6E21FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C3A04-33FD-F541-9E89-69B414B91297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="20700" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="11680" windowWidth="24320" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master list" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="675">
   <si>
     <t>paper_id</t>
   </si>
@@ -824,9 +824,6 @@
     <t>keren_79</t>
   </si>
   <si>
-    <t>Morgan et al. (2012)</t>
-  </si>
-  <si>
     <t>Neural response to reward as a predictor of increases in depressive symptoms in adolescence.</t>
   </si>
   <si>
@@ -2052,6 +2049,21 @@
   </si>
   <si>
     <t>Also tried a quick partial correlation accounting for age 20 BDI score and, again, nothing (r=-0.08 for anticipation, r=-0.01 for win).</t>
+  </si>
+  <si>
+    <t>Morgan et al. (2013)</t>
+  </si>
+  <si>
+    <t>Scult, et al. (2019)</t>
+  </si>
+  <si>
+    <t>Swartz et al. (2020)</t>
+  </si>
+  <si>
+    <t>main_id</t>
+  </si>
+  <si>
+    <t>suppl_id</t>
   </si>
 </sst>
 </file>
@@ -2510,504 +2522,648 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="77.5" customWidth="1"/>
+    <col min="2" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17">
         <v>111</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="17">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="17">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="17">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="17">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17">
+        <v>104</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" s="17">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="17">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="17">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="17">
+        <v>29</v>
+      </c>
+      <c r="D13" s="17">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="17">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="17">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="17">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="17">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="17">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="17">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" s="17">
+        <v>16</v>
+      </c>
+      <c r="D20" s="17">
+        <v>106</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="C21" s="17">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17">
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="17">
+        <v>34</v>
+      </c>
+      <c r="D22" s="17">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="24">
+        <v>35</v>
+      </c>
+      <c r="D23" s="24">
+        <v>103</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="24">
+        <v>36</v>
+      </c>
+      <c r="D24" s="24">
+        <v>99</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3994,7 +4150,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
@@ -4008,7 +4164,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H31" s="1">
         <v>49</v>
@@ -4021,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
@@ -4035,7 +4191,7 @@
         <v>137</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H32" s="1">
         <v>180</v>
@@ -4048,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16">
@@ -4062,10 +4218,10 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H33" s="1">
         <v>34</v>
@@ -4101,10 +4257,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H34" s="1">
         <v>29</v>
@@ -4159,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16">
@@ -4173,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H36" s="1">
         <v>60</v>
@@ -4193,13 +4349,13 @@
         <v>0.84</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16">
@@ -4213,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="1">
         <v>44</v>
@@ -4233,13 +4389,13 @@
         <v>0.81</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16">
@@ -4253,13 +4409,13 @@
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="G38" s="1">
         <v>10</v>
@@ -4281,7 +4437,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16">
@@ -4295,10 +4451,10 @@
         <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="H39" s="1">
         <v>37</v>
@@ -4325,13 +4481,13 @@
         <v>229</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H40" s="1">
         <v>87</v>
@@ -4351,10 +4507,10 @@
         <v>2.1</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16">
@@ -4368,13 +4524,13 @@
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G41" s="1">
         <v>16</v>
@@ -4383,22 +4539,22 @@
         <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P41" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16">
@@ -4428,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16">
@@ -4436,13 +4592,13 @@
         <v>260</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H43" s="1">
         <v>72</v>
@@ -4464,28 +4620,28 @@
         <v>260</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="H44" s="1">
         <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16">
@@ -4493,36 +4649,36 @@
         <v>260</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="H45" s="1">
         <v>40</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16">
       <c r="A46" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>223</v>
@@ -4538,21 +4694,21 @@
         <v>16.100000000000001</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16">
       <c r="A47" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H47" s="1">
         <v>68</v>
@@ -4574,13 +4730,13 @@
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H48" s="1">
         <v>34</v>
@@ -4599,21 +4755,21 @@
         <v>1.5</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H49" s="1">
         <v>10</v>
@@ -4635,15 +4791,15 @@
         <v>20</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>223</v>
@@ -6017,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>70</v>
@@ -6046,10 +6202,10 @@
         <v>260</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D29" s="1">
         <v>23</v>
@@ -6064,13 +6220,13 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M29" s="1">
         <v>2</v>
@@ -6093,10 +6249,10 @@
         <v>260</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1">
         <v>40</v>
@@ -6111,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -6137,13 +6293,13 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="1">
         <v>39</v>
@@ -6158,13 +6314,13 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>70</v>
@@ -6184,13 +6340,13 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="1">
         <v>68</v>
@@ -6205,13 +6361,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>70</v>
@@ -6231,13 +6387,13 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -6252,13 +6408,13 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>70</v>
@@ -6278,13 +6434,13 @@
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
@@ -6299,13 +6455,13 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K34" s="1">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>70</v>
@@ -6349,7 +6505,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6650,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S6" s="1">
         <v>2</v>
@@ -6700,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
@@ -6750,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S8" s="1">
         <v>2</v>
@@ -6800,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S9" s="1">
         <v>2</v>
@@ -6838,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -6944,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S12" s="1">
         <v>2</v>
@@ -6994,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S13" s="1">
         <v>2</v>
@@ -7055,13 +7211,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -7073,13 +7229,13 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>70</v>
@@ -7102,13 +7258,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -7120,13 +7276,13 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>70</v>
@@ -7179,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>70</v>
@@ -7296,7 +7452,7 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>208</v>
@@ -7311,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>70</v>
@@ -7755,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>70</v>
@@ -7784,31 +7940,31 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>70</v>
@@ -7834,11 +7990,11 @@
         <v>260</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -7849,13 +8005,13 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M31" s="1">
         <v>2</v>
@@ -7881,10 +8037,10 @@
         <v>260</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -7896,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -7925,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -7943,13 +8099,13 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>70</v>
@@ -7972,13 +8128,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -7990,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -8054,79 +8210,79 @@
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16">
@@ -8140,29 +8296,29 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J2" s="4">
         <f>30 * 18</f>
         <v>540</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="O2" s="1">
         <v>0.1</v>
@@ -8171,10 +8327,10 @@
         <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16">
@@ -8188,29 +8344,29 @@
         <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J4" si="0">6 * 30</f>
         <v>180</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O3" s="1">
         <v>0.01</v>
@@ -8219,10 +8375,10 @@
         <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16">
@@ -8236,29 +8392,29 @@
         <v>148</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O4" s="1">
         <v>0.01</v>
@@ -8267,10 +8423,10 @@
         <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16">
@@ -8284,29 +8440,29 @@
         <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J5" s="4">
         <f>365.25 * 3</f>
         <v>1095.75</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O5" s="1">
         <v>0.01</v>
@@ -8315,10 +8471,10 @@
         <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16">
@@ -8332,32 +8488,32 @@
         <v>240</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J8" si="1">12 * 7</f>
         <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="O6" s="1">
         <v>0.1</v>
@@ -8366,10 +8522,10 @@
         <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16">
@@ -8383,32 +8539,32 @@
         <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O7" s="1">
         <v>0.1</v>
@@ -8417,10 +8573,10 @@
         <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16">
@@ -8434,32 +8590,32 @@
         <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O8" s="1">
         <v>0.1</v>
@@ -8468,10 +8624,10 @@
         <v>30</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16">
@@ -8485,29 +8641,29 @@
         <v>210</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J9" s="4">
         <f>365.25</f>
         <v>365.25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O9" s="1">
         <v>0.1</v>
@@ -8516,10 +8672,10 @@
         <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16">
@@ -8533,32 +8689,32 @@
         <v>220</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" ref="J10:J12" si="2">18*7</f>
         <v>126</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16">
@@ -8572,32 +8728,32 @@
         <v>241</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16">
@@ -8608,77 +8764,77 @@
         <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="16">
       <c r="A13" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J13" s="1">
         <f>21 * 30</f>
         <v>630</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8714,55 +8870,55 @@
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16">
@@ -8779,13 +8935,13 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J2" s="1">
         <v>56</v>
@@ -8796,10 +8952,10 @@
         <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16">
@@ -8816,13 +8972,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J3" s="1">
         <v>56</v>
@@ -8833,10 +8989,10 @@
         <v>82</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16">
@@ -8853,13 +9009,13 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="1">
         <v>56</v>
@@ -8870,10 +9026,10 @@
         <v>82</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16">
@@ -8881,7 +9037,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -8890,13 +9046,13 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1">
         <v>56</v>
@@ -8907,10 +9063,10 @@
         <v>82</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16">
@@ -8918,7 +9074,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -8927,13 +9083,13 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J6" s="1">
         <v>56</v>
@@ -8944,10 +9100,10 @@
         <v>82</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16">
@@ -8955,7 +9111,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -8964,13 +9120,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J7" s="1">
         <v>56</v>
@@ -8981,10 +9137,10 @@
         <v>82</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16">
@@ -9001,13 +9157,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J8" s="1">
         <v>56</v>
@@ -9018,10 +9174,10 @@
         <v>82</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16">
@@ -9038,13 +9194,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J9" s="1">
         <v>29.6</v>
@@ -9056,13 +9212,13 @@
         <v>52.4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16">
@@ -9079,13 +9235,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J10" s="1">
         <v>29.6</v>
@@ -9097,13 +9253,13 @@
         <v>52.4</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
@@ -9117,25 +9273,25 @@
         <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O11" s="1">
         <v>12</v>
@@ -9147,10 +9303,10 @@
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
@@ -9164,25 +9320,25 @@
         <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O12" s="1">
         <v>12</v>
@@ -9194,10 +9350,10 @@
         <v>44</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1">
@@ -9205,31 +9361,31 @@
         <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O13" s="1">
         <v>-4</v>
@@ -9241,10 +9397,10 @@
         <v>-26</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1">
@@ -9258,25 +9414,25 @@
         <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O14" s="1">
         <v>14</v>
@@ -9288,10 +9444,10 @@
         <v>-18</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16">
@@ -9308,25 +9464,25 @@
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J15" s="1">
         <v>365.25</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16">
@@ -9344,26 +9500,26 @@
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ref="J16:J18" si="0">30 * 3</f>
         <v>90</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16">
@@ -9381,26 +9537,26 @@
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16">
@@ -9418,26 +9574,26 @@
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16">
@@ -9454,13 +9610,13 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ref="J19:J20" si="1">7 * 30</f>
@@ -9475,22 +9631,22 @@
         <v>420</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P19" s="21">
         <v>44053</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16">
@@ -9507,13 +9663,13 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="1"/>
@@ -9528,22 +9684,22 @@
         <v>420</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P20" s="21">
         <v>44053</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
@@ -9560,23 +9716,23 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ref="J21:J25" si="4">9 * 30</f>
         <v>270</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
@@ -9593,13 +9749,13 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="4"/>
@@ -9608,11 +9764,11 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
@@ -9629,13 +9785,13 @@
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="4"/>
@@ -9644,11 +9800,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
@@ -9656,7 +9812,7 @@
         <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>193</v>
@@ -9665,13 +9821,13 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="4"/>
@@ -9680,11 +9836,11 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
@@ -9692,7 +9848,7 @@
         <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>193</v>
@@ -9701,13 +9857,13 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="4"/>
@@ -9716,11 +9872,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="16">
@@ -9731,19 +9887,19 @@
         <v>244</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" ref="J26:J27" si="5">15/2</f>
@@ -9756,13 +9912,13 @@
         <v>15</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="16">
@@ -9773,19 +9929,19 @@
         <v>249</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
@@ -9798,13 +9954,13 @@
         <v>15</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1">
@@ -9818,32 +9974,32 @@
         <v>253</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="J28" s="4">
         <f>12 * 7</f>
         <v>84</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16">
@@ -9860,26 +10016,26 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" ref="J29:J31" si="6">2 * 365.25</f>
         <v>730.5</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16">
@@ -9887,32 +10043,32 @@
         <v>260</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="6"/>
         <v>730.5</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
@@ -9924,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="16">
@@ -9932,65 +10088,65 @@
         <v>260</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="6"/>
         <v>730.5</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="16">
       <c r="A32" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="J32" s="4">
         <f>365.25 * 1</f>
         <v>365.25</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="16">
@@ -9998,22 +10154,22 @@
         <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J33" s="1">
         <v>7</v>
@@ -10025,10 +10181,10 @@
         <v>14</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="16">
@@ -10039,19 +10195,19 @@
         <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="J34" s="1">
         <v>7</v>
@@ -10063,10 +10219,10 @@
         <v>14</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O34" s="1">
         <v>50</v>
@@ -10078,7 +10234,7 @@
         <v>6</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="16">
@@ -10086,22 +10242,22 @@
         <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="J35" s="1">
         <v>7</v>
@@ -10113,10 +10269,10 @@
         <v>14</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O35" s="1">
         <v>50</v>
@@ -10128,7 +10284,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="16">
@@ -10136,22 +10292,22 @@
         <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="J36" s="1">
         <v>7</v>
@@ -10163,10 +10319,10 @@
         <v>14</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O36" s="1">
         <v>50</v>
@@ -10178,30 +10334,30 @@
         <v>6</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" ref="J37:J38" si="7">12 * 7</f>
@@ -10212,10 +10368,10 @@
         <v>49</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O37" s="1">
         <v>-22</v>
@@ -10227,30 +10383,30 @@
         <v>18</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="7"/>
@@ -10261,10 +10417,10 @@
         <v>49</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O38" s="1">
         <v>52</v>
@@ -10276,40 +10432,40 @@
         <v>-2</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J39" s="4">
         <f>2 * 365.25</f>
         <v>730.5</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
@@ -10321,7 +10477,7 @@
         <v>-10</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -10336,8 +10492,8 @@
   </sheetPr>
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
@@ -10364,67 +10520,67 @@
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16">
@@ -10441,10 +10597,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G2" s="1">
         <v>0.31</v>
@@ -10485,10 +10641,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G3" s="1">
         <v>9.67</v>
@@ -10503,7 +10659,7 @@
         <v>193</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -10532,10 +10688,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G4" s="1">
         <v>5.13</v>
@@ -10550,7 +10706,7 @@
         <v>193</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -10565,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16">
@@ -10576,16 +10732,16 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G5" s="1">
         <v>0.53</v>
@@ -10620,16 +10776,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G6" s="1">
         <v>12.93</v>
@@ -10644,7 +10800,7 @@
         <v>193</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -10670,16 +10826,16 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G7" s="1">
         <v>2.15</v>
@@ -10720,10 +10876,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G8" s="1">
         <v>0.01</v>
@@ -10758,16 +10914,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" s="1">
         <v>6.16</v>
@@ -10799,19 +10955,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G10" s="1">
         <v>0.44</v>
@@ -10843,19 +10999,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G11" s="1">
         <v>7.68</v>
@@ -10870,7 +11026,7 @@
         <v>192</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -10885,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16">
@@ -10893,19 +11049,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G12" s="1">
         <v>2.11</v>
@@ -10937,16 +11093,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -10966,16 +11122,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -10995,16 +11151,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -11024,16 +11180,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -11056,16 +11212,16 @@
         <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G17" s="1">
         <v>6.28</v>
@@ -11080,7 +11236,7 @@
         <v>199</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -11103,16 +11259,16 @@
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G18" s="1">
         <v>1.78</v>
@@ -11150,7 +11306,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N19" s="1">
         <v>40</v>
@@ -11182,7 +11338,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N20" s="1">
         <v>40</v>
@@ -11214,10 +11370,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="G21" s="1">
         <v>-0.4</v>
@@ -11226,7 +11382,7 @@
         <v>0.19</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -11241,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
@@ -11258,10 +11414,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G22" s="1">
         <v>-2.12</v>
@@ -11273,7 +11429,7 @@
         <v>186</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -11302,16 +11458,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G23" s="1">
         <v>7.6</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -11340,10 +11496,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="G24" s="1">
         <v>-9.4E-2</v>
@@ -11352,7 +11508,7 @@
         <v>0.3</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -11381,10 +11537,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G25" s="1">
         <v>-3.15</v>
@@ -11396,7 +11552,7 @@
         <v>187</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -11425,16 +11581,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G26" s="1">
         <v>25</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -11454,19 +11610,19 @@
         <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="G27" s="1">
         <v>-0.08</v>
@@ -11475,7 +11631,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -11495,19 +11651,19 @@
         <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G28" s="1">
         <v>-3.2</v>
@@ -11519,7 +11675,7 @@
         <v>186</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -11534,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
@@ -11542,25 +11698,25 @@
         <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G29" s="1">
         <v>33</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -11589,10 +11745,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="G30" s="27">
         <v>0.4</v>
@@ -11608,7 +11764,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q30" s="25">
         <v>0</v>
@@ -11646,10 +11802,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G31" s="27">
         <v>2.82</v>
@@ -11667,7 +11823,7 @@
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q31" s="27">
         <v>0</v>
@@ -11682,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V31" s="30"/>
       <c r="W31" s="31" t="s">
@@ -11709,10 +11865,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G32" s="25">
         <v>33</v>
@@ -11726,7 +11882,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q32" s="25">
         <v>0</v>
@@ -11764,10 +11920,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G33" s="1">
         <v>-0.83</v>
@@ -11791,7 +11947,7 @@
         <v>245</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
@@ -11806,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>33</v>
@@ -11826,10 +11982,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G34" s="1">
         <v>4.17</v>
@@ -11853,22 +12009,22 @@
         <v>245</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>33</v>
@@ -11888,10 +12044,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G35" s="1">
         <v>-0.64</v>
@@ -11903,7 +12059,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
@@ -11935,10 +12091,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G36" s="1">
         <v>-0.56000000000000005</v>
@@ -11950,7 +12106,7 @@
         <v>25</v>
       </c>
       <c r="P36" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
@@ -11982,10 +12138,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="G37" s="1">
         <v>0.82</v>
@@ -11994,22 +12150,22 @@
         <v>0.2</v>
       </c>
       <c r="P37" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="16">
@@ -12026,10 +12182,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="G38" s="1">
         <v>-0.1</v>
@@ -12048,22 +12204,22 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>33</v>
@@ -12083,10 +12239,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G39" s="1">
         <v>0.44</v>
@@ -12118,10 +12274,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G40" s="1">
         <v>5.36</v>
@@ -12165,10 +12321,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="G41" s="1">
         <v>0.16</v>
@@ -12200,10 +12356,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G42" s="1">
         <v>0.24</v>
@@ -12235,10 +12391,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G43" s="1">
         <v>1.27</v>
@@ -12259,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V43" s="1">
         <v>1</v>
@@ -12282,13 +12438,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="N44" s="1">
         <v>119</v>
@@ -12306,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16">
@@ -12323,10 +12479,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G45" s="1">
         <v>-8.5999999999999993E-2</v>
@@ -12353,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>33</v>
@@ -12373,10 +12529,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G46" s="1">
         <v>-7.0000000000000007E-2</v>
@@ -12385,22 +12541,22 @@
         <v>0.03</v>
       </c>
       <c r="M46" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>1</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>33</v>
@@ -12414,16 +12570,16 @@
         <v>166</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G47" s="1">
         <v>-0.12</v>
@@ -12432,25 +12588,25 @@
         <v>0.06</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P47" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>1</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>33</v>
@@ -12470,10 +12626,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G48" s="1">
         <v>-0.28999999999999998</v>
@@ -12482,7 +12638,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
@@ -12511,23 +12667,23 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G49" s="1">
         <v>-2.1</v>
       </c>
       <c r="I49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N49" s="1">
         <v>21</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q49" s="1">
         <v>1</v>
@@ -12559,10 +12715,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G50" s="1">
         <v>6.226</v>
@@ -12589,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="V50" s="1">
         <v>1</v>
@@ -12609,10 +12765,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G51" s="1">
         <v>-0.157</v>
@@ -12645,10 +12801,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G52" s="1">
         <v>4.2220000000000004</v>
@@ -12675,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="V52" s="1">
         <v>1</v>
@@ -12695,10 +12851,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G53" s="1">
         <v>-0.128</v>
@@ -12731,13 +12887,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="N54" s="2"/>
       <c r="Q54" s="1">
@@ -12753,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>33</v>
@@ -12767,19 +12923,19 @@
         <v>181</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N55" s="2"/>
       <c r="Q55" s="1">
@@ -12795,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>33</v>
@@ -12809,16 +12965,16 @@
         <v>185</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G56" s="1">
         <v>0.37</v>
@@ -12837,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V56" s="1">
         <v>1</v>
@@ -12854,19 +13010,19 @@
         <v>193</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="N57" s="2"/>
       <c r="Q57" s="1">
@@ -12882,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>33</v>
@@ -12893,19 +13049,19 @@
         <v>178</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G58" s="1">
         <v>-0.02</v>
@@ -12924,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V58" s="1">
         <v>1</v>
@@ -12938,22 +13094,22 @@
         <v>178</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="N59" s="2"/>
       <c r="Q59" s="1">
@@ -12969,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>33</v>
@@ -12989,10 +13145,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G60" s="1">
         <v>-0.39</v>
@@ -13027,16 +13183,16 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G61" s="1">
         <v>-2.04</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N61" s="2">
         <v>32</v>
@@ -13054,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>33</v>
@@ -13074,10 +13230,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G62" s="1">
         <v>0.14000000000000001</v>
@@ -13112,10 +13268,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G63" s="1">
         <v>0.75</v>
@@ -13139,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>33</v>
@@ -13159,10 +13315,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G64" s="1">
         <v>-0.2</v>
@@ -13180,7 +13336,7 @@
         <v>0.27</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N64" s="2">
         <v>176</v>
@@ -13198,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16">
@@ -13209,16 +13365,16 @@
         <v>210</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G65" s="1">
         <v>0.01</v>
@@ -13236,7 +13392,7 @@
         <v>0.02</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N65" s="17">
         <v>176</v>
@@ -13254,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16">
@@ -13265,16 +13421,16 @@
         <v>210</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D66" s="1">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G66" s="1">
         <v>0.05</v>
@@ -13292,7 +13448,7 @@
         <v>0.16</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N66" s="17">
         <v>176</v>
@@ -13310,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16">
@@ -13321,16 +13477,16 @@
         <v>210</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G67" s="1">
         <v>-3.0000000000000001E-3</v>
@@ -13348,7 +13504,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N67" s="17">
         <v>176</v>
@@ -13366,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="W67" s="1" t="s">
         <v>33</v>
@@ -13386,13 +13542,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N68" s="2"/>
       <c r="Q68" s="1">
@@ -13425,10 +13581,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G69" s="1">
         <v>0.14000000000000001</v>
@@ -13464,10 +13620,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G70" s="1">
         <v>1.1499999999999999</v>
@@ -13489,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16">
@@ -13500,16 +13656,16 @@
         <v>220</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G71" s="1">
         <v>0.08</v>
@@ -13531,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16">
@@ -13542,16 +13698,16 @@
         <v>220</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G72" s="1">
         <v>2.09</v>
@@ -13575,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>33</v>
@@ -13595,10 +13751,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G73" s="1">
         <v>0.188</v>
@@ -13625,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W73" s="1" t="s">
         <v>70</v>
@@ -13645,10 +13801,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G74" s="1">
         <v>4.7E-2</v>
@@ -13663,22 +13819,22 @@
         <v>82</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>1</v>
-      </c>
-      <c r="T74" s="1">
-        <v>0</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>70</v>
@@ -13698,10 +13854,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="G75" s="1">
         <v>6.61</v>
@@ -13711,7 +13867,7 @@
       </c>
       <c r="N75" s="2"/>
       <c r="P75" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q75" s="1">
         <v>0</v>
@@ -13740,10 +13896,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G76" s="1">
         <v>0.56000000000000005</v>
@@ -13764,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W76" s="1" t="s">
         <v>33</v>
@@ -13784,10 +13940,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G77" s="1">
         <v>-0.05</v>
@@ -13796,22 +13952,22 @@
         <v>2.3E-2</v>
       </c>
       <c r="P77" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1">
-        <v>0</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>33</v>
@@ -13831,10 +13987,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G78" s="1">
         <v>-2.2799999999999998</v>
@@ -13846,7 +14002,7 @@
         <v>908</v>
       </c>
       <c r="P78" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q78" s="1">
         <v>0</v>
@@ -13861,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W78" s="1" t="s">
         <v>33</v>
@@ -13872,19 +14028,19 @@
         <v>260</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G79" s="1">
         <v>3.23</v>
@@ -13896,22 +14052,22 @@
         <v>37</v>
       </c>
       <c r="P79" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>1</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>1</v>
+      </c>
+      <c r="U79" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>1</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>1</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="V79" s="1">
         <v>1</v>
@@ -13925,19 +14081,19 @@
         <v>260</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -13958,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W80" s="1" t="s">
         <v>33</v>
@@ -13966,22 +14122,22 @@
     </row>
     <row r="81" spans="1:23" ht="16">
       <c r="A81" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G81" s="1">
         <v>-5.3</v>
@@ -13996,22 +14152,22 @@
         <v>35</v>
       </c>
       <c r="P81" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>1</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1</v>
+      </c>
+      <c r="U81" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81" s="1">
-        <v>1</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1">
-        <v>1</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="W81" s="1" t="s">
         <v>33</v>
@@ -14019,22 +14175,22 @@
     </row>
     <row r="82" spans="1:23" ht="16">
       <c r="A82" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G82" s="1">
         <v>-0.42</v>
@@ -14054,28 +14210,28 @@
     </row>
     <row r="83" spans="1:23" ht="16">
       <c r="A83" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G83" s="1">
         <v>5.46</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N83" s="1">
         <v>3</v>
@@ -14096,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V83" s="1">
         <v>1</v>
@@ -14107,22 +14263,22 @@
     </row>
     <row r="84" spans="1:23" ht="16">
       <c r="A84" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G84" s="1">
         <v>-0.26</v>
@@ -14142,22 +14298,22 @@
     </row>
     <row r="85" spans="1:23" ht="16">
       <c r="A85" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G85" s="1">
         <v>-2.2200000000000002</v>
@@ -14183,19 +14339,19 @@
         <v>95</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G86" s="1">
         <v>0.31</v>
@@ -14213,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16">
@@ -14230,16 +14386,16 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G87" s="1">
         <v>3.83</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q87" s="1">
         <v>0</v>
@@ -14254,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16">
@@ -14271,10 +14427,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G88" s="1">
         <v>0.48</v>
@@ -14298,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>70</v>
@@ -14309,19 +14465,19 @@
         <v>95</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G89" s="1">
         <v>-0.15</v>
@@ -14330,10 +14486,10 @@
         <v>0.08</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q89" s="1">
         <v>0</v>
@@ -14353,19 +14509,19 @@
         <v>95</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D90" s="1">
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G90" s="1">
         <v>0.2</v>
@@ -14374,45 +14530,45 @@
         <v>0.09</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P90" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1">
-        <v>1</v>
-      </c>
-      <c r="T90" s="1">
-        <v>0</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="13">
       <c r="A91" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G91" s="1">
         <v>3.1</v>
@@ -14421,22 +14577,22 @@
         <v>9</v>
       </c>
       <c r="P91" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>1</v>
-      </c>
-      <c r="R91" s="1">
-        <v>0</v>
-      </c>
-      <c r="S91" s="1">
-        <v>0</v>
-      </c>
-      <c r="T91" s="1">
-        <v>0</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="V91" s="1">
         <v>1</v>
@@ -14444,22 +14600,22 @@
     </row>
     <row r="92" spans="1:23" ht="18">
       <c r="A92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D92" s="1">
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G92" s="1">
         <v>3.53</v>
@@ -14468,7 +14624,7 @@
         <v>9</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q92" s="1">
         <v>0</v>
@@ -14483,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V92" s="1">
         <v>1</v>
@@ -14491,43 +14647,43 @@
     </row>
     <row r="93" spans="1:23" ht="15">
       <c r="A93" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G93" s="1">
         <v>-0.08</v>
       </c>
       <c r="P93" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>1</v>
+      </c>
+      <c r="U93" s="39" t="s">
         <v>669</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>1</v>
-      </c>
-      <c r="S93" s="1">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1">
-        <v>1</v>
-      </c>
-      <c r="U93" s="39" t="s">
-        <v>670</v>
       </c>
       <c r="W93" s="1" t="s">
         <v>33</v>

--- a/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
+++ b/great_expectations_data/data/quality_and_data_extraction-nielsond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nielsond/code/midla/great_expectations/great_expectations_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C3A04-33FD-F541-9E89-69B414B91297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8551B305-E5DA-1347-8FC4-F347B647FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="11680" windowWidth="24320" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11560" yWindow="12120" windowWidth="24320" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master list" sheetId="1" r:id="rId1"/>
@@ -2528,7 +2528,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2571,7 +2571,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="17">
         <v>98</v>
@@ -2597,7 +2597,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="17">
         <v>93</v>
@@ -2623,7 +2623,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="17">
         <v>97</v>
@@ -2652,7 +2652,7 @@
         <v>104</v>
       </c>
       <c r="C5" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="17">
         <v>111</v>
@@ -2678,7 +2678,7 @@
         <v>672</v>
       </c>
       <c r="C6" s="17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="17">
         <v>109</v>
@@ -2704,7 +2704,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="17">
         <v>107</v>
@@ -2730,7 +2730,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17">
         <v>105</v>
@@ -2756,7 +2756,7 @@
         <v>147</v>
       </c>
       <c r="C9" s="17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="17">
         <v>104</v>
@@ -2782,7 +2782,7 @@
         <v>671</v>
       </c>
       <c r="C10" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="17">
         <v>108</v>
@@ -2808,7 +2808,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17">
         <v>101</v>
@@ -2834,7 +2834,7 @@
         <v>174</v>
       </c>
       <c r="C12" s="17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17">
         <v>102</v>
@@ -2860,7 +2860,7 @@
         <v>180</v>
       </c>
       <c r="C13" s="17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="17">
         <v>100</v>
@@ -2886,7 +2886,7 @@
         <v>204</v>
       </c>
       <c r="C14" s="17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="17">
         <v>96</v>
@@ -2912,7 +2912,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="17">
         <v>95</v>
@@ -2938,7 +2938,7 @@
         <v>219</v>
       </c>
       <c r="C16" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="17">
         <v>92</v>
@@ -2964,7 +2964,7 @@
         <v>230</v>
       </c>
       <c r="C17" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="17">
         <v>91</v>
@@ -2993,7 +2993,7 @@
         <v>237</v>
       </c>
       <c r="C18" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="17">
         <v>18</v>
@@ -3019,7 +3019,7 @@
         <v>254</v>
       </c>
       <c r="C19" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17">
         <v>79</v>
@@ -3045,7 +3045,7 @@
         <v>670</v>
       </c>
       <c r="C20" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17">
         <v>106</v>
@@ -3071,7 +3071,7 @@
         <v>271</v>
       </c>
       <c r="C21" s="17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="17">
         <v>110</v>
@@ -3097,7 +3097,7 @@
         <v>294</v>
       </c>
       <c r="C22" s="17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="17">
         <v>94</v>
@@ -3123,7 +3123,7 @@
         <v>312</v>
       </c>
       <c r="C23" s="24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="24">
         <v>103</v>
@@ -3149,7 +3149,7 @@
         <v>326</v>
       </c>
       <c r="C24" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="24">
         <v>99</v>
